--- a/Phantoms/pCT_Phantom_List.xlsx
+++ b/Phantoms/pCT_Phantom_List.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A97C4-06DD-4407-9F0A-480A681570B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="7380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
   <si>
     <t>Object</t>
   </si>
@@ -413,12 +414,27 @@
   </si>
   <si>
     <t>Calib_XXXX_nst4b_000.dat</t>
+  </si>
+  <si>
+    <t>George Phantom</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>George_Phantom</t>
+  </si>
+  <si>
+    <t>George_XXXX_xxx.dat</t>
+  </si>
+  <si>
+    <t>George_XXXX_Cont_000.dat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1131,47 +1147,53 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,6 +1288,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1301,6 +1340,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1476,15 +1532,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26:E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,21 +1563,21 @@
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="72">
+      <c r="B1" s="74">
         <v>42210</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1538,10 +1594,10 @@
       <c r="C4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1554,10 +1610,10 @@
       <c r="C5" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1570,10 +1626,10 @@
       <c r="C6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,10 +1642,10 @@
       <c r="C7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1602,10 +1658,10 @@
       <c r="C8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1703,7 +1759,7 @@
       <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -1715,7 +1771,7 @@
       <c r="D13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="79" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="35" t="s">
@@ -1734,7 +1790,7 @@
       <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1800,7 @@
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="36" t="s">
         <v>72</v>
       </c>
@@ -1761,7 +1817,7 @@
       <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +1827,7 @@
       <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="36" t="s">
         <v>72</v>
       </c>
@@ -1788,7 +1844,7 @@
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
@@ -1798,7 +1854,7 @@
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="64"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="36" t="s">
         <v>72</v>
       </c>
@@ -1815,7 +1871,7 @@
       <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1881,7 @@
       <c r="D17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="64"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="44" t="s">
         <v>72</v>
       </c>
@@ -1842,7 +1898,7 @@
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="32" t="s">
         <v>30</v>
       </c>
@@ -1852,7 +1908,7 @@
       <c r="D18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="64"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="44" t="s">
         <v>72</v>
       </c>
@@ -2024,10 +2080,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -2036,7 +2092,7 @@
       <c r="D24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="65" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="15" t="s">
@@ -2055,15 +2111,15 @@
       <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="9" t="s">
         <v>72</v>
       </c>
@@ -2084,10 +2140,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="65" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -2096,7 +2152,7 @@
       <c r="D26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="65" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -2119,15 +2175,15 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="17" t="s">
         <v>72</v>
       </c>
@@ -2148,10 +2204,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -2160,7 +2216,7 @@
       <c r="D28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="65" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -2183,15 +2239,15 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="63"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="9" t="s">
         <v>72</v>
       </c>
@@ -2212,10 +2268,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -2224,7 +2280,7 @@
       <c r="D30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="65" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="15" t="s">
@@ -2247,15 +2303,15 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="63"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="17" t="s">
         <v>72</v>
       </c>
@@ -2306,14 +2362,58 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:A27"/>
@@ -2322,19 +2422,6 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E13:E18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
